--- a/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
+++ b/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="52">
   <si>
     <t>土地坐落</t>
   </si>
@@ -123,6 +123,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>大魯閣纖维</t>
   </si>
   <si>
@@ -160,6 +169,9 @@
   </si>
   <si>
     <t>謝林興業股份有限公司</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
   </si>
 </sst>
 </file>
@@ -850,13 +862,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
@@ -875,13 +887,22 @@
       <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -898,13 +919,22 @@
       <c r="G2" s="2">
         <v>223550</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -921,13 +951,22 @@
       <c r="G3" s="2">
         <v>5451920</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -944,13 +983,22 @@
       <c r="G4" s="2">
         <v>2070000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -967,13 +1015,22 @@
       <c r="G5" s="2">
         <v>651340</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -990,13 +1047,22 @@
       <c r="G6" s="2">
         <v>39630</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1013,13 +1079,22 @@
       <c r="G7" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1036,13 +1111,22 @@
       <c r="G8" s="2">
         <v>30830</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1059,13 +1143,22 @@
       <c r="G9" s="2">
         <v>37540</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1082,13 +1175,22 @@
       <c r="G10" s="2">
         <v>2167830</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1105,13 +1207,22 @@
       <c r="G11" s="2">
         <v>7480</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1128,13 +1239,22 @@
       <c r="G12" s="2">
         <v>7210</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1151,13 +1271,22 @@
       <c r="G13" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1173,6 +1302,15 @@
       </c>
       <c r="G14" s="2">
         <v>100000</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1387</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
+++ b/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
   <si>
     <t>土地坐落</t>
   </si>
@@ -123,6 +123,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -162,13 +165,16 @@
     <t>台積電</t>
   </si>
   <si>
-    <t>遊戲橘子數位科技股份有 限公司</t>
+    <t>遊戲橘子數位科技股份有限公司</t>
   </si>
   <si>
     <t>台豐興業股份有限公司</t>
   </si>
   <si>
     <t>謝林興業股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-17</t>
@@ -862,13 +868,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
@@ -896,13 +902,16 @@
       <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -920,21 +929,24 @@
         <v>223550</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -952,21 +964,24 @@
         <v>5451920</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -984,21 +999,24 @@
         <v>2070000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1016,21 +1034,24 @@
         <v>651340</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1048,21 +1069,24 @@
         <v>39630</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="2">
+        <v>53</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1080,21 +1104,24 @@
         <v>500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="2">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1112,21 +1139,24 @@
         <v>30830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="2">
+        <v>53</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1144,21 +1174,24 @@
         <v>37540</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="2">
+        <v>53</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1176,21 +1209,24 @@
         <v>2167830</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="2">
+        <v>53</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1208,21 +1244,24 @@
         <v>7480</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="2">
+        <v>53</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1240,21 +1279,24 @@
         <v>7210</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="2">
+        <v>53</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1272,21 +1314,24 @@
         <v>150000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="2">
+        <v>53</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1304,12 +1349,15 @@
         <v>100000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="2">
+        <v>53</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2">
         <v>1387</v>
       </c>
     </row>

--- a/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
+++ b/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="59">
   <si>
     <t>土地坐落</t>
   </si>
@@ -126,6 +126,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -135,6 +138,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>大魯閣纖维</t>
   </si>
   <si>
@@ -177,7 +186,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmpbbad1</t>
   </si>
 </sst>
 </file>
@@ -868,13 +883,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
@@ -905,13 +920,22 @@
       <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -929,24 +953,33 @@
         <v>223550</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2">
+        <v>57</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -964,24 +997,33 @@
         <v>5451920</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2">
+        <v>57</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -999,24 +1041,33 @@
         <v>2070000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2">
+        <v>57</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1034,24 +1085,33 @@
         <v>651340</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="2">
+        <v>57</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1069,24 +1129,33 @@
         <v>39630</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="2">
+        <v>57</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1104,24 +1173,33 @@
         <v>500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2">
+        <v>57</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1139,24 +1217,33 @@
         <v>30830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="2">
+        <v>57</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1174,24 +1261,33 @@
         <v>37540</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="2">
+        <v>57</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1209,24 +1305,33 @@
         <v>2167830</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="2">
+        <v>57</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1244,24 +1349,33 @@
         <v>7480</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="2">
+        <v>57</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1279,24 +1393,33 @@
         <v>7210</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="2">
+        <v>57</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1314,24 +1437,33 @@
         <v>150000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="2">
+        <v>57</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="2">
         <v>1387</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1349,16 +1481,25 @@
         <v>100000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="2">
+        <v>57</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="2">
         <v>1387</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
+++ b/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
@@ -16,30 +16,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="59">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>基隆市安樂區大武崙段内寮小 段0509-0010地號</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="58">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>基隆市安樂區大武崙段内寮小段05090010地號</t>
   </si>
   <si>
     <t>全部</t>
@@ -48,12 +69,24 @@
     <t>謝國樑</t>
   </si>
   <si>
-    <t>91年12月 26日</t>
+    <t>91年12月26日</t>
   </si>
   <si>
     <t>受贈</t>
   </si>
   <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmpbbad1</t>
+  </si>
+  <si>
     <t>存放機構(應敘明分支機構）</t>
   </si>
   <si>
@@ -84,19 +117,19 @@
     <t>華南商業銀行城內分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行板橋分 行</t>
+    <t>國泰世華商業銀行板橋分行</t>
   </si>
   <si>
     <t>國泰世華商業銀行營業部</t>
   </si>
   <si>
-    <t>中國信託商業銀行城中分 行</t>
+    <t>中國信託商業銀行城中分行</t>
   </si>
   <si>
     <t>中華商業銀行營業部</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司基 隆</t>
+    <t>中華郵政股份有限公司基隆</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -105,12 +138,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -123,27 +150,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>大魯閣纖维</t>
   </si>
   <si>
@@ -184,15 +190,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-17</t>
-  </si>
-  <si>
-    <t>tmpbbad1</t>
   </si>
 </sst>
 </file>
@@ -551,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,31 +576,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>336600</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1387</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -621,19 +660,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -641,16 +680,16 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -661,16 +700,16 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>24217</v>
@@ -681,16 +720,16 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>40</v>
@@ -701,16 +740,16 @@
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2">
         <v>171</v>
@@ -721,16 +760,16 @@
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
         <v>1990318</v>
@@ -741,16 +780,16 @@
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2">
         <v>7</v>
@@ -761,16 +800,16 @@
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
         <v>8840</v>
@@ -781,16 +820,16 @@
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
         <v>1172</v>
@@ -801,16 +840,16 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
@@ -821,16 +860,16 @@
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2">
         <v>4377</v>
@@ -841,16 +880,16 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -861,16 +900,16 @@
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2">
         <v>21500</v>
@@ -891,43 +930,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -935,10 +974,10 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>22355</v>
@@ -947,28 +986,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>223550</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2">
         <v>1387</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2">
         <v>62</v>
@@ -979,10 +1018,10 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>545192</v>
@@ -991,28 +1030,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>5451920</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2">
         <v>1387</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N3" s="2">
         <v>63</v>
@@ -1023,10 +1062,10 @@
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>20700</v>
@@ -1035,28 +1074,28 @@
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2">
         <v>2070000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2">
         <v>1387</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N4" s="2">
         <v>64</v>
@@ -1067,10 +1106,10 @@
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>65134</v>
@@ -1079,28 +1118,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
         <v>651340</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2">
         <v>1387</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N5" s="2">
         <v>65</v>
@@ -1111,10 +1150,10 @@
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>3963</v>
@@ -1123,28 +1162,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>39630</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2">
         <v>1387</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N6" s="2">
         <v>66</v>
@@ -1155,10 +1194,10 @@
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>50000</v>
@@ -1167,28 +1206,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
         <v>500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L7" s="2">
         <v>1387</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N7" s="2">
         <v>67</v>
@@ -1199,10 +1238,10 @@
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>3083</v>
@@ -1211,28 +1250,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2">
         <v>30830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L8" s="2">
         <v>1387</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N8" s="2">
         <v>68</v>
@@ -1243,10 +1282,10 @@
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>3754</v>
@@ -1255,28 +1294,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2">
         <v>37540</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L9" s="2">
         <v>1387</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N9" s="2">
         <v>69</v>
@@ -1287,10 +1326,10 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>216783</v>
@@ -1299,28 +1338,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2">
         <v>2167830</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L10" s="2">
         <v>1387</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N10" s="2">
         <v>70</v>
@@ -1331,10 +1370,10 @@
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>748</v>
@@ -1343,28 +1382,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2">
         <v>7480</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L11" s="2">
         <v>1387</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N11" s="2">
         <v>71</v>
@@ -1375,10 +1414,10 @@
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>721</v>
@@ -1387,28 +1426,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2">
         <v>7210</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L12" s="2">
         <v>1387</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N12" s="2">
         <v>72</v>
@@ -1419,10 +1458,10 @@
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2">
         <v>15000</v>
@@ -1431,28 +1470,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2">
         <v>150000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L13" s="2">
         <v>1387</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N13" s="2">
         <v>73</v>
@@ -1463,10 +1502,10 @@
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
         <v>10000</v>
@@ -1475,28 +1514,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2">
         <v>100000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L14" s="2">
         <v>1387</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N14" s="2">
         <v>74</v>

--- a/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
+++ b/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -60,22 +60,97 @@
     <t>index</t>
   </si>
   <si>
-    <t>基隆市安樂區大武崙段内寮小段05090010地號</t>
-  </si>
-  <si>
-    <t>全部</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>基隆二信營業部</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
   </si>
   <si>
     <t>謝國樑</t>
   </si>
   <si>
-    <t>91年12月26日</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>land</t>
+    <t>基隆二信港東分社</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行城內分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行營業部</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>中華商業銀行營業部</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司基隆</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>基創實業</t>
+  </si>
+  <si>
+    <t>基隆二信合作社</t>
+  </si>
+  <si>
+    <t>聯莖電子</t>
+  </si>
+  <si>
+    <t>銶寶科技</t>
+  </si>
+  <si>
+    <t>整合資訊科技</t>
+  </si>
+  <si>
+    <t>台灣大哥大</t>
+  </si>
+  <si>
+    <t>山隆通運</t>
+  </si>
+  <si>
+    <t>三功興業</t>
+  </si>
+  <si>
+    <t>台積電</t>
+  </si>
+  <si>
+    <t>遊戲橘子數位科技股份有限公司</t>
+  </si>
+  <si>
+    <t>台豐興業股份有限公司</t>
+  </si>
+  <si>
+    <t>謝林興業股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>normal</t>
@@ -85,111 +160,6 @@
   </si>
   <si>
     <t>tmpbbad1</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>基隆二信營業部</t>
-  </si>
-  <si>
-    <t>基隆二信港東分社</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行城內分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行營業部</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>中華商業銀行營業部</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司基隆</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>大魯閣纖维</t>
-  </si>
-  <si>
-    <t>基創實業</t>
-  </si>
-  <si>
-    <t>基隆二信合作社</t>
-  </si>
-  <si>
-    <t>聯莖電子</t>
-  </si>
-  <si>
-    <t>銶寶科技</t>
-  </si>
-  <si>
-    <t>整合資訊科技</t>
-  </si>
-  <si>
-    <t>台灣大哥大</t>
-  </si>
-  <si>
-    <t>山隆通運</t>
-  </si>
-  <si>
-    <t>三功興業</t>
-  </si>
-  <si>
-    <t>台積電</t>
-  </si>
-  <si>
-    <t>遊戲橘子數位科技股份有限公司</t>
-  </si>
-  <si>
-    <t>台豐興業股份有限公司</t>
-  </si>
-  <si>
-    <t>謝林興業股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -548,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,52 +567,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>198</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>336600</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1387</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +581,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,258 +589,238 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>24217</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2">
-        <v>24217</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2">
-        <v>171</v>
+        <v>1990318</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
-        <v>1990318</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2">
-        <v>7</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2">
-        <v>8840</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2">
-        <v>1172</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2">
-        <v>5</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2">
-        <v>4377</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>55</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2">
         <v>21500</v>
       </c>
     </row>
@@ -922,7 +831,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -936,16 +845,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -971,573 +880,529 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
-        <v>22355</v>
+        <v>545192</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2">
-        <v>223550</v>
+        <v>5451920</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L2" s="2">
         <v>1387</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20700</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2070000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2">
-        <v>545192</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5451920</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
         <v>1387</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>65134</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
+        <v>651340</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2">
-        <v>20700</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2070000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L4" s="2">
         <v>1387</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N4" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
-        <v>65134</v>
+        <v>3963</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2">
-        <v>651340</v>
+        <v>39630</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L5" s="2">
         <v>1387</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
-        <v>3963</v>
+        <v>50000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2">
-        <v>39630</v>
+        <v>500000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2">
         <v>1387</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>50000</v>
+        <v>3083</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2">
-        <v>500000</v>
+        <v>30830</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2">
         <v>1387</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
-        <v>3083</v>
+        <v>3754</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2">
-        <v>30830</v>
+        <v>37540</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L8" s="2">
         <v>1387</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N8" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
-        <v>3754</v>
+        <v>216783</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2">
-        <v>37540</v>
+        <v>2167830</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L9" s="2">
         <v>1387</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N9" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>216783</v>
+        <v>748</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2">
-        <v>2167830</v>
+        <v>7480</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L10" s="2">
         <v>1387</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2">
-        <v>7480</v>
+        <v>7210</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L11" s="2">
         <v>1387</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N11" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
-        <v>721</v>
+        <v>15000</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2">
-        <v>7210</v>
+        <v>150000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L12" s="2">
         <v>1387</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N12" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L13" s="2">
         <v>1387</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N13" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1">
-        <v>74</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E14" s="2">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1387</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="2">
         <v>74</v>
       </c>
     </row>

--- a/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
+++ b/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,33 @@
     <t>total</t>
   </si>
   <si>
+    <t>基隆市安樂區大武崙段内寮小段05090010地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>謝國樑</t>
+  </si>
+  <si>
+    <t>91年12月26日</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-17</t>
+  </si>
+  <si>
+    <t>tmpbbad1</t>
+  </si>
+  <si>
     <t>基隆二信營業部</t>
   </si>
   <si>
@@ -75,9 +102,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>謝國樑</t>
-  </si>
-  <si>
     <t>基隆二信港東分社</t>
   </si>
   <si>
@@ -114,6 +138,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>大魯閣纖维</t>
+  </si>
+  <si>
     <t>基創實業</t>
   </si>
   <si>
@@ -151,15 +178,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-17</t>
-  </si>
-  <si>
-    <t>tmpbbad1</t>
   </si>
 </sst>
 </file>
@@ -518,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,6 +590,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>198</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>336600</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1387</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +652,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -589,16 +660,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1">
         <v>1</v>
@@ -606,221 +677,241 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>24217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>40</v>
+        <v>24217</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>1990318</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>7</v>
+        <v>1990318</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>8840</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2">
-        <v>1172</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2">
-        <v>5</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>4377</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2">
-        <v>2</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>55</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2">
         <v>21500</v>
       </c>
     </row>
@@ -831,7 +922,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -845,13 +936,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -880,529 +971,573 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>545192</v>
+        <v>22355</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2">
-        <v>5451920</v>
+        <v>223550</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>1387</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>20700</v>
+        <v>545192</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2">
-        <v>2070000</v>
+        <v>5451920</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <v>1387</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>65134</v>
+        <v>20700</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2">
-        <v>651340</v>
+        <v>2070000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
         <v>1387</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>3963</v>
+        <v>65134</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2">
-        <v>39630</v>
+        <v>651340</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2">
         <v>1387</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N5" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>50000</v>
+        <v>3963</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2">
-        <v>500000</v>
+        <v>39630</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2">
         <v>1387</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N6" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>3083</v>
+        <v>50000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2">
-        <v>30830</v>
+        <v>500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2">
         <v>1387</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N7" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>3754</v>
+        <v>3083</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2">
-        <v>37540</v>
+        <v>30830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2">
         <v>1387</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N8" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>216783</v>
+        <v>3754</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2">
-        <v>2167830</v>
+        <v>37540</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2">
         <v>1387</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N9" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>748</v>
+        <v>216783</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2">
-        <v>7480</v>
+        <v>2167830</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2">
         <v>1387</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N10" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>721</v>
+        <v>748</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2">
-        <v>7210</v>
+        <v>7480</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" s="2">
         <v>1387</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N11" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>15000</v>
+        <v>721</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2">
-        <v>150000</v>
+        <v>7210</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="2">
         <v>1387</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N12" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" s="2">
         <v>1387</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="N13" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1387</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="2">
         <v>74</v>
       </c>
     </row>

--- a/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
+++ b/legislator/property/output/normal/謝國樑_2011-11-17_財產申報表_tmpbbad1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -93,49 +93,58 @@
     <t>tmpbbad1</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>基隆二信營業部</t>
   </si>
   <si>
+    <t>基隆二信港東分社</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行城內分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行營業部</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>中華商業銀行營業部</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司基隆</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>基隆二信港東分社</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行城內分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行營業部</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>中華商業銀行營業部</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司基隆</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>大魯閣纖维</t>
@@ -652,13 +661,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
@@ -669,24 +678,45 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -694,19 +724,40 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1387</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -714,19 +765,40 @@
       <c r="F3" s="2">
         <v>24217</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1387</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -734,19 +806,40 @@
       <c r="F4" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1387</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -754,19 +847,40 @@
       <c r="F5" s="2">
         <v>171</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1387</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -774,19 +888,40 @@
       <c r="F6" s="2">
         <v>1990318</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1387</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -794,19 +929,40 @@
       <c r="F7" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1387</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -814,19 +970,40 @@
       <c r="F8" s="2">
         <v>8840</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1387</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -834,19 +1011,40 @@
       <c r="F9" s="2">
         <v>1172</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1387</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
@@ -854,19 +1052,40 @@
       <c r="F10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1387</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -874,19 +1093,40 @@
       <c r="F11" s="2">
         <v>4377</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1387</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -894,25 +1134,67 @@
       <c r="F12" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1387</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="2">
         <v>21500</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1387</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -936,13 +1218,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -974,7 +1256,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -986,13 +1268,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>223550</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -1018,7 +1300,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1030,13 +1312,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>5451920</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -1062,7 +1344,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1074,13 +1356,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2">
         <v>2070000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1106,7 +1388,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1118,13 +1400,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
         <v>651340</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1150,7 +1432,7 @@
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1162,13 +1444,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>39630</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -1194,7 +1476,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1206,13 +1488,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
         <v>500000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -1238,7 +1520,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1250,13 +1532,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2">
         <v>30830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
@@ -1282,7 +1564,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1294,13 +1576,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2">
         <v>37540</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -1326,7 +1608,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1338,13 +1620,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2">
         <v>2167830</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -1370,7 +1652,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1382,13 +1664,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2">
         <v>7480</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
@@ -1414,7 +1696,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -1426,13 +1708,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2">
         <v>7210</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -1458,7 +1740,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -1470,13 +1752,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2">
         <v>150000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
@@ -1502,7 +1784,7 @@
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -1514,13 +1796,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2">
         <v>100000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>22</v>
